--- a/artfynd/A 39885-2023.xlsx
+++ b/artfynd/A 39885-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,6 +1227,135 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112017318</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90295</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sotriska</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lactarius lignyotus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Granskärs våtmark, Söderhamn, Hls</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>610923.2678714381</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6799713.923112066</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Söderhamn</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Norrala</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>blandskog mossig slänt med tall och gran</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Andreas Nilsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Andreas Nilsson, Max Rosendahl</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 39885-2023.xlsx
+++ b/artfynd/A 39885-2023.xlsx
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>610923.2678714381</v>
+        <v>610923</v>
       </c>
       <c r="R6" t="n">
-        <v>6799713.923112066</v>
+        <v>6799714</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1313,19 +1313,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 39885-2023.xlsx
+++ b/artfynd/A 39885-2023.xlsx
@@ -1232,7 +1232,7 @@
         <v>112017318</v>
       </c>
       <c r="B6" t="n">
-        <v>90295</v>
+        <v>90429</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 39885-2023.xlsx
+++ b/artfynd/A 39885-2023.xlsx
@@ -1232,7 +1232,7 @@
         <v>112017318</v>
       </c>
       <c r="B6" t="n">
-        <v>90429</v>
+        <v>90443</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
